--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 12/NKSX_.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 12/NKSX_.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Nhập kho\Tháng 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A04135-EFBA-445B-BFC1-BC22776CD42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320211CA-9D27-4E4C-9C1D-0C91554058D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="XuatKho_SX" sheetId="10" r:id="rId1"/>
+    <sheet name="NhapKho_SX" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">XuatKho_SX!$A$1:$M$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NhapKho_SX!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
